--- a/Players.xlsx
+++ b/Players.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="309">
   <si>
     <t>Year</t>
   </si>
@@ -910,6 +910,48 @@
   <si>
     <t>Peja Stojakovic</t>
   </si>
+  <si>
+    <t>Rodney Hood</t>
+  </si>
+  <si>
+    <t>Morris Peterson</t>
+  </si>
+  <si>
+    <t>Purvis Short</t>
+  </si>
+  <si>
+    <t>Louis Orr</t>
+  </si>
+  <si>
+    <t>Aaron James</t>
+  </si>
+  <si>
+    <t>Hedo Turkoglu</t>
+  </si>
+  <si>
+    <t>Dario Saric</t>
+  </si>
+  <si>
+    <t>Willie Burton</t>
+  </si>
+  <si>
+    <t>Rick Robey</t>
+  </si>
+  <si>
+    <t>Walt Williams</t>
+  </si>
+  <si>
+    <t>Markieff Morris</t>
+  </si>
+  <si>
+    <t>Eddie Johnson</t>
+  </si>
+  <si>
+    <t>Clarence Weatherspoon</t>
+  </si>
+  <si>
+    <t>Tellis Frank</t>
+  </si>
 </sst>
 </file>
 
@@ -1273,11 +1315,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA790"/>
+  <dimension ref="A1:AA838"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A759" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA786" sqref="AA786"/>
+      <pane ySplit="1" topLeftCell="A806" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA838" sqref="AA838"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -66278,19 +66320,4386 @@
       </c>
     </row>
     <row r="786" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A786" s="4"/>
+      <c r="A786" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C786" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D786" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E786" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="F786" s="6">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G786" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="H786" s="6">
+        <v>5</v>
+      </c>
+      <c r="I786" s="6">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="J786" s="6">
+        <v>2</v>
+      </c>
+      <c r="K786" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L786" s="6">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="M786" s="6">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="N786" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="O786" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="P786" s="6">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="Q786" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="R786" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S786" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="T786" s="6">
+        <v>1</v>
+      </c>
+      <c r="U786" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="V786" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W786" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X786" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="Y786" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="Z786" s="6">
+        <v>60</v>
+      </c>
+      <c r="AA786" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="787" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A787" s="4"/>
+      <c r="A787" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B787" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C787" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D787" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E787" s="6">
+        <v>8</v>
+      </c>
+      <c r="F787" s="6">
+        <v>0.435</v>
+      </c>
+      <c r="G787" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="H787" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I787" s="6">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="J787" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="K787" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="L787" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="M787" s="6">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="N787" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="O787" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="P787" s="6">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="Q787" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="R787" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="S787" s="6">
+        <v>2</v>
+      </c>
+      <c r="T787" s="6">
+        <v>1</v>
+      </c>
+      <c r="U787" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V787" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W787" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="X787" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y787" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="Z787" s="6">
+        <v>60</v>
+      </c>
+      <c r="AA787" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="788" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A788" s="4"/>
+      <c r="A788" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B788" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C788" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D788" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E788" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="F788" s="6">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G788" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H788" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="I788" s="6">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J788" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="K788" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="L788" s="6">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="M788" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="N788" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O788" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P788" s="6">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="Q788" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="R788" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="S788" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="T788" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U788" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V788" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="W788" s="6">
+        <v>1</v>
+      </c>
+      <c r="X788" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="Y788" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="Z788" s="6">
+        <v>60</v>
+      </c>
+      <c r="AA788" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="789" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A789" s="4"/>
+      <c r="A789" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B789" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C789" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D789" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="E789" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="F789" s="6">
+        <v>0.437</v>
+      </c>
+      <c r="G789" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="H789" s="6">
+        <v>5</v>
+      </c>
+      <c r="I789" s="6">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="J789" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="K789" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L789" s="6">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="M789" s="6">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="N789" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="O789" s="6">
+        <v>1</v>
+      </c>
+      <c r="P789" s="6">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="Q789" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="R789" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="S789" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="T789" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U789" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V789" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="W789" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="X789" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="Y789" s="6">
+        <v>11</v>
+      </c>
+      <c r="Z789" s="6">
+        <v>60</v>
+      </c>
+      <c r="AA789" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="790" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A790" s="4"/>
+      <c r="A790" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B790" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C790" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D790" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="E790" s="6">
+        <v>15.3</v>
+      </c>
+      <c r="F790" s="6">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="G790" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H790" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I790" s="6">
+        <v>0.185</v>
+      </c>
+      <c r="J790" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="K790" s="6">
+        <v>15</v>
+      </c>
+      <c r="L790" s="6">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="M790" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="N790" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="O790" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="P790" s="6">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="Q790" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="R790" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="S790" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="T790" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="U790" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="V790" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="W790" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="X790" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="Y790" s="6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Z790" s="6">
+        <v>59</v>
+      </c>
+      <c r="AA790" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A791" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B791" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C791" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D791" s="6">
+        <v>7</v>
+      </c>
+      <c r="E791" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="F791" s="6">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="G791" s="6">
+        <v>0</v>
+      </c>
+      <c r="H791" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I791" s="6">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="J791" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="K791" s="6">
+        <v>14</v>
+      </c>
+      <c r="L791" s="6">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="M791" s="6">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="N791" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="O791" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="P791" s="6">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="Q791" s="6">
+        <v>1</v>
+      </c>
+      <c r="R791" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="S791" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="T791" s="6">
+        <v>3</v>
+      </c>
+      <c r="U791" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V791" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="W791" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="X791" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="Y791" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="Z791" s="6">
+        <v>59</v>
+      </c>
+      <c r="AA791" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A792" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C792" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D792" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E792" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="F792" s="6">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="G792" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H792" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I792" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="J792" s="6">
+        <v>5</v>
+      </c>
+      <c r="K792" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="L792" s="6">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="M792" s="6">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="N792" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O792" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P792" s="6">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="Q792" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="R792" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="S792" s="6">
+        <v>3</v>
+      </c>
+      <c r="T792" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="U792" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="V792" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="W792" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="X792" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y792" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="Z792" s="6">
+        <v>59</v>
+      </c>
+      <c r="AA792" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="793" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A793" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B793" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C793" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D793" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E793" s="6">
+        <v>12</v>
+      </c>
+      <c r="F793" s="6">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="G793" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H793" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I793" s="6">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="J793" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="K793" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="L793" s="6">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="M793" s="6">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="N793" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="O793" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="P793" s="6">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="Q793" s="6">
+        <v>1</v>
+      </c>
+      <c r="R793" s="6">
+        <v>3</v>
+      </c>
+      <c r="S793" s="6">
+        <v>4</v>
+      </c>
+      <c r="T793" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="U793" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="V793" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="W793" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="X793" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="Y793" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="Z793" s="6">
+        <v>59</v>
+      </c>
+      <c r="AA793" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A794" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B794" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C794" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D794" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E794" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F794" s="6">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G794" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H794" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="I794" s="6">
+        <v>0.216</v>
+      </c>
+      <c r="J794" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="K794" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="L794" s="6">
+        <v>0.434</v>
+      </c>
+      <c r="M794" s="6">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="N794" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="O794" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="P794" s="6">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="Q794" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="R794" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S794" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="T794" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="U794" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="V794" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W794" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="X794" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="Y794" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="Z794" s="6">
+        <v>59</v>
+      </c>
+      <c r="AA794" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A795" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C795" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D795" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E795" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F795" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="G795" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H795" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="I795" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="J795" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="K795" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="L795" s="6">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="M795" s="6">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="N795" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O795" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P795" s="6">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="Q795" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="R795" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="S795" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="T795" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="U795" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="V795" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="W795" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="X795" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="Y795" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z795" s="6">
+        <v>59</v>
+      </c>
+      <c r="AA795" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="796" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A796" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C796" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D796" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="E796" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="F796" s="6">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G796" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H796" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I796" s="6">
+        <v>0.371</v>
+      </c>
+      <c r="J796" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="K796" s="6">
+        <v>3</v>
+      </c>
+      <c r="L796" s="6">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="M796" s="6">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="N796" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O796" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P796" s="6">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="Q796" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="R796" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="S796" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="T796" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="U796" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V796" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="W796" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="X796" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="Y796" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z796" s="6">
+        <v>59</v>
+      </c>
+      <c r="AA796" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A797" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C797" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D797" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="E797" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="F797" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="G797" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="H797" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I797" s="6">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J797" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="K797" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="L797" s="6">
+        <v>0.442</v>
+      </c>
+      <c r="M797" s="6">
+        <v>0.496</v>
+      </c>
+      <c r="N797" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O797" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="P797" s="6">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="Q797" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="R797" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="S797" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T797" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="U797" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V797" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="W797" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X797" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="Y797" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="Z797" s="6">
+        <v>59</v>
+      </c>
+      <c r="AA797" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A798" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C798" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D798" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="E798" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="F798" s="6">
+        <v>0.436</v>
+      </c>
+      <c r="G798" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H798" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="I798" s="6">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="J798" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="K798" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="L798" s="6">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="M798" s="6">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="N798" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="O798" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="P798" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="Q798" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="R798" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="S798" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T798" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U798" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="V798" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="W798" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="X798" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="Y798" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="Z798" s="6">
+        <v>59</v>
+      </c>
+      <c r="AA798" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="799" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A799" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C799" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D799" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E799" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="F799" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="G799" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="H799" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="I799" s="6">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="J799" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="K799" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="L799" s="6">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="M799" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="N799" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O799" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="P799" s="6">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="Q799" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="R799" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="S799" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="T799" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="U799" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="V799" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="W799" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="X799" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="Y799" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="Z799" s="6">
+        <v>57</v>
+      </c>
+      <c r="AA799" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A800" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C800" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D800" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="E800" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="F800" s="6">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="G800" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="H800" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="I800" s="6">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="J800" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="K800" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L800" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M800" s="6">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="N800" s="6">
+        <v>3</v>
+      </c>
+      <c r="O800" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="P800" s="6">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="Q800" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="R800" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="S800" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="T800" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="U800" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="V800" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W800" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="X800" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="Y800" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Z800" s="6">
+        <v>57</v>
+      </c>
+      <c r="AA800" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A801" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B801" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C801" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D801" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E801" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="F801" s="6">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G801" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="H801" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="I801" s="6">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="J801" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="K801" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="L801" s="6">
+        <v>0.436</v>
+      </c>
+      <c r="M801" s="6">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="N801" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="O801" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="P801" s="6">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="Q801" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R801" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="S801" s="6">
+        <v>4</v>
+      </c>
+      <c r="T801" s="6">
+        <v>3</v>
+      </c>
+      <c r="U801" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V801" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W801" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="X801" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="Y801" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="Z801" s="6">
+        <v>57</v>
+      </c>
+      <c r="AA801" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="802" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A802" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B802" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C802" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D802" s="6">
+        <v>9</v>
+      </c>
+      <c r="E802" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F802" s="6">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="G802" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H802" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="I802" s="6">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="J802" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K802" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="L802" s="6">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="M802" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="N802" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="O802" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="P802" s="6">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="Q802" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R802" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="S802" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="T802" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="U802" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="V802" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="W802" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="X802" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="Y802" s="6">
+        <v>22.8</v>
+      </c>
+      <c r="Z802" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA802" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A803" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B803" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C803" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D803" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="E803" s="6">
+        <v>22.8</v>
+      </c>
+      <c r="F803" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="G803" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="H803" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="I803" s="6">
+        <v>0.313</v>
+      </c>
+      <c r="J803" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="K803" s="6">
+        <v>20.9</v>
+      </c>
+      <c r="L803" s="6">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="M803" s="6">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="N803" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="O803" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="P803" s="6">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="Q803" s="6">
+        <v>2</v>
+      </c>
+      <c r="R803" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="S803" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T803" s="6">
+        <v>3</v>
+      </c>
+      <c r="U803" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="V803" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W803" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="X803" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="Y803" s="6">
+        <v>28</v>
+      </c>
+      <c r="Z803" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA803" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="804" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A804" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B804" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C804" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D804" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="E804" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="F804" s="6">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G804" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H804" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="I804" s="6">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="J804" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K804" s="6">
+        <v>19.8</v>
+      </c>
+      <c r="L804" s="6">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="M804" s="6">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="N804" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="O804" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="P804" s="6">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="Q804" s="6">
+        <v>2</v>
+      </c>
+      <c r="R804" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="S804" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T804" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="U804" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="V804" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W804" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="X804" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="Y804" s="6">
+        <v>25.5</v>
+      </c>
+      <c r="Z804" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA804" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="805" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A805" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B805" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C805" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D805" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E805" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F805" s="6">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G805" s="6">
+        <v>0</v>
+      </c>
+      <c r="H805" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I805" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J805" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="K805" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="L805" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="M805" s="6">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="N805" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="O805" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="P805" s="6">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="Q805" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R805" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="S805" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T805" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="U805" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="V805" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W805" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="X805" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="Y805" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="Z805" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA805" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A806" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B806" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C806" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D806" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E806" s="6">
+        <v>10</v>
+      </c>
+      <c r="F806" s="6">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G806" s="6">
+        <v>0</v>
+      </c>
+      <c r="H806" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I806" s="6">
+        <v>0</v>
+      </c>
+      <c r="J806" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="K806" s="6">
+        <v>10</v>
+      </c>
+      <c r="L806" s="6">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="M806" s="6">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="N806" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="O806" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="P806" s="6">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="Q806" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="R806" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="S806" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="T806" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="U806" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="V806" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="W806" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="X806" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="Y806" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="Z806" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA806" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="807" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A807" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B807" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C807" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D807" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="E807" s="6">
+        <v>6</v>
+      </c>
+      <c r="F807" s="6">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G807" s="6">
+        <v>0</v>
+      </c>
+      <c r="H807" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I807" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J807" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="K807" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="L807" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="M807" s="6">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="N807" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O807" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="P807" s="6">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="Q807" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="R807" s="6">
+        <v>2</v>
+      </c>
+      <c r="S807" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="T807" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="U807" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="V807" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W807" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X807" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="Y807" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z807" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA807" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="808" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A808" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B808" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C808" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D808" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="E808" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="F808" s="6">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G808" s="6"/>
+      <c r="H808" s="6"/>
+      <c r="I808" s="6"/>
+      <c r="J808" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="K808" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="L808" s="6">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="M808" s="6">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="N808" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="O808" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="P808" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="Q808" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="R808" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="S808" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="T808" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U808" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="V808" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W808" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="X808" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="Y808" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z808" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA808" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A809" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B809" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C809" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D809" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E809" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="F809" s="6">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G809" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="H809" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="I809" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="J809" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="K809" s="6">
+        <v>8</v>
+      </c>
+      <c r="L809" s="6">
+        <v>0.438</v>
+      </c>
+      <c r="M809" s="6">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="N809" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="O809" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="P809" s="6">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="Q809" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="R809" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="S809" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="T809" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U809" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="V809" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W809" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="X809" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="Y809" s="6">
+        <v>14</v>
+      </c>
+      <c r="Z809" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA809" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A810" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B810" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C810" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D810" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E810" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="F810" s="6">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="G810" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H810" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="I810" s="6">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="J810" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="K810" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="L810" s="6">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="M810" s="6">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="N810" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="O810" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="P810" s="6">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="Q810" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="R810" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="S810" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="T810" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="U810" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V810" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W810" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="X810" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y810" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="Z810" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA810" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="811" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A811" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B811" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C811" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D811" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E811" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="F811" s="6">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G811" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H811" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="I811" s="6">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="J811" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="K811" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="L811" s="6">
+        <v>0.435</v>
+      </c>
+      <c r="M811" s="6">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="N811" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O811" s="6">
+        <v>3</v>
+      </c>
+      <c r="P811" s="6">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="Q811" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="R811" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="S811" s="6">
+        <v>4</v>
+      </c>
+      <c r="T811" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="U811" s="6">
+        <v>1</v>
+      </c>
+      <c r="V811" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="W811" s="6">
+        <v>2</v>
+      </c>
+      <c r="X811" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y811" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="Z811" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA811" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="812" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A812" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B812" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C812" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D812" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="E812" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="F812" s="6">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="G812" s="6">
+        <v>0</v>
+      </c>
+      <c r="H812" s="6">
+        <v>0</v>
+      </c>
+      <c r="I812" s="6"/>
+      <c r="J812" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="K812" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="L812" s="6">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="M812" s="6">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="N812" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="O812" s="6">
+        <v>1</v>
+      </c>
+      <c r="P812" s="6">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="Q812" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="R812" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="S812" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="T812" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="U812" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="V812" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="W812" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="X812" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y812" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="Z812" s="6">
+        <v>59</v>
+      </c>
+      <c r="AA812" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A813" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B813" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C813" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D813" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="E813" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F813" s="6">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G813" s="6">
+        <v>0</v>
+      </c>
+      <c r="H813" s="6">
+        <v>0</v>
+      </c>
+      <c r="I813" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J813" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="K813" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L813" s="6">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="M813" s="6">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="N813" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="O813" s="6">
+        <v>2</v>
+      </c>
+      <c r="P813" s="6">
+        <v>0.748</v>
+      </c>
+      <c r="Q813" s="6">
+        <v>2</v>
+      </c>
+      <c r="R813" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="S813" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="T813" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="U813" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="V813" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="W813" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="X813" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="Y813" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z813" s="6">
+        <v>59</v>
+      </c>
+      <c r="AA813" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="814" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A814" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B814" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C814" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D814" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="E814" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="F814" s="6">
+        <v>0.435</v>
+      </c>
+      <c r="G814" s="6">
+        <v>0</v>
+      </c>
+      <c r="H814" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I814" s="6">
+        <v>0</v>
+      </c>
+      <c r="J814" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="K814" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="L814" s="6">
+        <v>0.442</v>
+      </c>
+      <c r="M814" s="6">
+        <v>0.435</v>
+      </c>
+      <c r="N814" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O814" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="P814" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="Q814" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="R814" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="S814" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="T814" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U814" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="V814" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="W814" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="X814" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="Y814" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="Z814" s="6">
+        <v>59</v>
+      </c>
+      <c r="AA814" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="815" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A815" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B815" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C815" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D815" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="E815" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="F815" s="6">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="G815" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H815" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I815" s="6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="J815" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="K815" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="L815" s="6">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="M815" s="6">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="N815" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="O815" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P815" s="6">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="Q815" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="R815" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="S815" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="T815" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="U815" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V815" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="W815" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="X815" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y815" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="Z815" s="6">
+        <v>57</v>
+      </c>
+      <c r="AA815" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A816" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B816" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C816" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D816" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E816" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="F816" s="6">
+        <v>0.438</v>
+      </c>
+      <c r="G816" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H816" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I816" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J816" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K816" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L816" s="6">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="M816" s="6">
+        <v>0.443</v>
+      </c>
+      <c r="N816" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O816" s="6">
+        <v>3</v>
+      </c>
+      <c r="P816" s="6">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="Q816" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="R816" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="S816" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="T816" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="U816" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="V816" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="W816" s="6">
+        <v>1</v>
+      </c>
+      <c r="X816" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="Y816" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z816" s="6">
+        <v>57</v>
+      </c>
+      <c r="AA816" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="817" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A817" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B817" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C817" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D817" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E817" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="F817" s="6">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G817" s="6">
+        <v>2</v>
+      </c>
+      <c r="H817" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="I817" s="6">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J817" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="K817" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="L817" s="6">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="M817" s="6">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="N817" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="O817" s="6">
+        <v>5</v>
+      </c>
+      <c r="P817" s="6">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="Q817" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="R817" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S817" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="T817" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="U817" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="V817" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="W817" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X817" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="Y817" s="6">
+        <v>15.3</v>
+      </c>
+      <c r="Z817" s="6">
+        <v>57</v>
+      </c>
+      <c r="AA817" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="818" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A818" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B818" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C818" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D818" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="E818" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="F818" s="6">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="G818" s="6">
+        <v>0</v>
+      </c>
+      <c r="H818" s="6">
+        <v>0</v>
+      </c>
+      <c r="I818" s="6">
+        <v>0</v>
+      </c>
+      <c r="J818" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="K818" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="L818" s="6">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="M818" s="6">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="N818" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="O818" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="P818" s="6">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="Q818" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="R818" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="S818" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="T818" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="U818" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V818" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="W818" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="X818" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="Y818" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z818" s="6">
+        <v>57</v>
+      </c>
+      <c r="AA818" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A819" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B819" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C819" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D819" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E819" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="F819" s="6">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="G819" s="6">
+        <v>0</v>
+      </c>
+      <c r="H819" s="6">
+        <v>0</v>
+      </c>
+      <c r="I819" s="6">
+        <v>0</v>
+      </c>
+      <c r="J819" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K819" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="L819" s="6">
+        <v>0.496</v>
+      </c>
+      <c r="M819" s="6">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="N819" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O819" s="6">
+        <v>2</v>
+      </c>
+      <c r="P819" s="6">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="Q819" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="R819" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S819" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="T819" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="U819" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="V819" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="W819" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="X819" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y819" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="Z819" s="6">
+        <v>57</v>
+      </c>
+      <c r="AA819" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="820" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A820" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B820" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C820" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D820" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="E820" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="F820" s="6">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G820" s="6">
+        <v>0</v>
+      </c>
+      <c r="H820" s="6">
+        <v>0</v>
+      </c>
+      <c r="I820" s="6"/>
+      <c r="J820" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="K820" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="L820" s="6">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="M820" s="6">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="N820" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="O820" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="P820" s="6">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q820" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="R820" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="S820" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="T820" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U820" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="V820" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="W820" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="X820" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y820" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="Z820" s="6">
+        <v>57</v>
+      </c>
+      <c r="AA820" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="821" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A821" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B821" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C821" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D821" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="E821" s="6">
+        <v>13</v>
+      </c>
+      <c r="F821" s="6">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="G821" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H821" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="I821" s="6">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="J821" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K821" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="L821" s="6">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="M821" s="6">
+        <v>0.497</v>
+      </c>
+      <c r="N821" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="O821" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="P821" s="6">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="Q821" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="R821" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="S821" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="T821" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U821" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="V821" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="W821" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="X821" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="Y821" s="6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="Z821" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA821" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A822" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B822" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C822" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D822" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E822" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="F822" s="6">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="G822" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="H822" s="6">
+        <v>4</v>
+      </c>
+      <c r="I822" s="6">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="J822" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="K822" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="L822" s="6">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="M822" s="6">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="N822" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O822" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="P822" s="6">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="Q822" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="R822" s="6">
+        <v>3</v>
+      </c>
+      <c r="S822" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T822" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="U822" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="V822" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="W822" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="X822" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="Y822" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="Z822" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA822" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="823" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A823" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B823" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C823" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D823" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E823" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="F823" s="6">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G823" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="H823" s="6">
+        <v>6</v>
+      </c>
+      <c r="I823" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J823" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="K823" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="L823" s="6">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="M823" s="6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="N823" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="O823" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="P823" s="6">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="Q823" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="R823" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="S823" s="6">
+        <v>5</v>
+      </c>
+      <c r="T823" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="U823" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="V823" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="W823" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="X823" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="Y823" s="6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="Z823" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA823" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="824" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A824" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B824" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C824" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D824" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E824" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="F824" s="6">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G824" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H824" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="I824" s="6">
+        <v>0.315</v>
+      </c>
+      <c r="J824" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="K824" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="L824" s="6">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="M824" s="6">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="N824" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="O824" s="6">
+        <v>4</v>
+      </c>
+      <c r="P824" s="6">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="Q824" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="R824" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="S824" s="6">
+        <v>6</v>
+      </c>
+      <c r="T824" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="U824" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="V824" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="W824" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="X824" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="Y824" s="6">
+        <v>13.8</v>
+      </c>
+      <c r="Z824" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA824" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A825" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B825" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C825" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D825" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="E825" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="F825" s="6">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G825" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H825" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I825" s="6">
+        <v>0.318</v>
+      </c>
+      <c r="J825" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="K825" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="L825" s="6">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="M825" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="N825" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O825" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="P825" s="6">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="Q825" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="R825" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="S825" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="T825" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U825" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="V825" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="W825" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="X825" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y825" s="6">
+        <v>15.3</v>
+      </c>
+      <c r="Z825" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA825" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="826" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A826" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B826" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C826" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D826" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="E826" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="F826" s="6">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G826" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H826" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="I826" s="6">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="J826" s="6">
+        <v>4</v>
+      </c>
+      <c r="K826" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L826" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M826" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="N826" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="O826" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P826" s="6">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="Q826" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R826" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S826" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="T826" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="U826" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V826" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="W826" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="X826" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="Y826" s="6">
+        <v>12</v>
+      </c>
+      <c r="Z826" s="6">
+        <v>56</v>
+      </c>
+      <c r="AA826" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="827" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A827" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B827" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C827" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D827" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E827" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F827" s="6">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G827" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H827" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="I827" s="6">
+        <v>0.313</v>
+      </c>
+      <c r="J827" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="K827" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L827" s="6">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="M827" s="6">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="N827" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="O827" s="6">
+        <v>4</v>
+      </c>
+      <c r="P827" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="Q827" s="6">
+        <v>2</v>
+      </c>
+      <c r="R827" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="S827" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="T827" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="U827" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V827" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W827" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="X827" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="Y827" s="6">
+        <v>21.9</v>
+      </c>
+      <c r="Z827" s="6">
+        <v>55</v>
+      </c>
+      <c r="AA827" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A828" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B828" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C828" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D828" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="E828" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F828" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="G828" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H828" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="I828" s="6">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J828" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K828" s="6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="L828" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M828" s="6">
+        <v>0.496</v>
+      </c>
+      <c r="N828" s="6">
+        <v>4</v>
+      </c>
+      <c r="O828" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="P828" s="6">
+        <v>0.871</v>
+      </c>
+      <c r="Q828" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="R828" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="S828" s="6">
+        <v>5</v>
+      </c>
+      <c r="T828" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="U828" s="6">
+        <v>1</v>
+      </c>
+      <c r="V828" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W828" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="X828" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="Y828" s="6">
+        <v>22.9</v>
+      </c>
+      <c r="Z828" s="6">
+        <v>55</v>
+      </c>
+      <c r="AA828" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="829" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A829" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B829" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C829" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D829" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="E829" s="6">
+        <v>16</v>
+      </c>
+      <c r="F829" s="6">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G829" s="6">
+        <v>0</v>
+      </c>
+      <c r="H829" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I829" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J829" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="K829" s="6">
+        <v>15.7</v>
+      </c>
+      <c r="L829" s="6">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="M829" s="6">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="N829" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="O829" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="P829" s="6">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="Q829" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="R829" s="6">
+        <v>3</v>
+      </c>
+      <c r="S829" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T829" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="U829" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="V829" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="W829" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X829" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="Y829" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="Z829" s="6">
+        <v>55</v>
+      </c>
+      <c r="AA829" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="830" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A830" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B830" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C830" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D830" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E830" s="6">
+        <v>16.3</v>
+      </c>
+      <c r="F830" s="6">
+        <v>0.439</v>
+      </c>
+      <c r="G830" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H830" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I830" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="J830" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="K830" s="6">
+        <v>16</v>
+      </c>
+      <c r="L830" s="6">
+        <v>0.443</v>
+      </c>
+      <c r="M830" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="N830" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="O830" s="6">
+        <v>5</v>
+      </c>
+      <c r="P830" s="6">
+        <v>0.751</v>
+      </c>
+      <c r="Q830" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="R830" s="6">
+        <v>5</v>
+      </c>
+      <c r="S830" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="T830" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="U830" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="V830" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="W830" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="X830" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="Y830" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Z830" s="6">
+        <v>55</v>
+      </c>
+      <c r="AA830" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A831" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B831" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C831" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D831" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="E831" s="6">
+        <v>13</v>
+      </c>
+      <c r="F831" s="6">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="G831" s="6">
+        <v>0</v>
+      </c>
+      <c r="H831" s="6">
+        <v>0</v>
+      </c>
+      <c r="I831" s="6">
+        <v>0</v>
+      </c>
+      <c r="J831" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="K831" s="6">
+        <v>13</v>
+      </c>
+      <c r="L831" s="6">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="M831" s="6">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="N831" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O831" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="P831" s="6">
+        <v>0.746</v>
+      </c>
+      <c r="Q831" s="6">
+        <v>3</v>
+      </c>
+      <c r="R831" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="S831" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="T831" s="6">
+        <v>2</v>
+      </c>
+      <c r="U831" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="V831" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="W831" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X831" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="Y831" s="6">
+        <v>16.7</v>
+      </c>
+      <c r="Z831" s="6">
+        <v>55</v>
+      </c>
+      <c r="AA831" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="832" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A832" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B832" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C832" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D832" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E832" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="F832" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="G832" s="6">
+        <v>0</v>
+      </c>
+      <c r="H832" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I832" s="6">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="J832" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="K832" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L832" s="6">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="M832" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="N832" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="O832" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="P832" s="6">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="Q832" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="R832" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="S832" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="T832" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="U832" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V832" s="6">
+        <v>1</v>
+      </c>
+      <c r="W832" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="X832" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y832" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="Z832" s="6">
+        <v>55</v>
+      </c>
+      <c r="AA832" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="833" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A833" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B833" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C833" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D833" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="E833" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="F833" s="6">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G833" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H833" s="6">
+        <v>3</v>
+      </c>
+      <c r="I833" s="6">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J833" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="K833" s="6">
+        <v>5</v>
+      </c>
+      <c r="L833" s="6">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="M833" s="6">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="N833" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="O833" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="P833" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="Q833" s="6">
+        <v>1</v>
+      </c>
+      <c r="R833" s="6">
+        <v>3</v>
+      </c>
+      <c r="S833" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T833" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="U833" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="V833" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="W833" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X833" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="Y833" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z833" s="6">
+        <v>55</v>
+      </c>
+      <c r="AA833" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A834" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B834" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C834" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D834" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E834" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="F834" s="6">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="G834" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H834" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="I834" s="6">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="J834" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="K834" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="L834" s="6">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="M834" s="6">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="N834" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="O834" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="P834" s="6">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="Q834" s="6">
+        <v>1</v>
+      </c>
+      <c r="R834" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="S834" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="T834" s="6">
+        <v>2</v>
+      </c>
+      <c r="U834" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="V834" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="W834" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="X834" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="Y834" s="6">
+        <v>9</v>
+      </c>
+      <c r="Z834" s="6">
+        <v>55</v>
+      </c>
+      <c r="AA834" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A835" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B835" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C835" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D835" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="E835" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="F835" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="G835" s="6">
+        <v>0</v>
+      </c>
+      <c r="H835" s="6">
+        <v>0</v>
+      </c>
+      <c r="I835" s="6"/>
+      <c r="J835" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="K835" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="L835" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M835" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="N835" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O835" s="6">
+        <v>3</v>
+      </c>
+      <c r="P835" s="6">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="Q835" s="6">
+        <v>2</v>
+      </c>
+      <c r="R835" s="6">
+        <v>3</v>
+      </c>
+      <c r="S835" s="6">
+        <v>5</v>
+      </c>
+      <c r="T835" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U835" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="V835" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="W835" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="X835" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="Y835" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="Z835" s="6">
+        <v>54</v>
+      </c>
+      <c r="AA835" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A836" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B836" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C836" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D836" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E836" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="F836" s="6">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="G836" s="6">
+        <v>0</v>
+      </c>
+      <c r="H836" s="6">
+        <v>0</v>
+      </c>
+      <c r="I836" s="6">
+        <v>0</v>
+      </c>
+      <c r="J836" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="K836" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="L836" s="6">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="M836" s="6">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="N836" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="O836" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="P836" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Q836" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R836" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="S836" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="T836" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U836" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="V836" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W836" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X836" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="Y836" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="Z836" s="6">
+        <v>54</v>
+      </c>
+      <c r="AA836" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A837" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B837" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C837" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D837" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E837" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="F837" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="G837" s="6">
+        <v>0</v>
+      </c>
+      <c r="H837" s="6">
+        <v>0</v>
+      </c>
+      <c r="I837" s="6"/>
+      <c r="J837" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="K837" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="L837" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M837" s="6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="N837" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O837" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="P837" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="Q837" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="R837" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="S837" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="T837" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U837" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="V837" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="W837" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="X837" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="Y837" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="Z837" s="6">
+        <v>54</v>
+      </c>
+      <c r="AA837" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="838" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A838" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B838" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C838" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D838" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E838" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F838" s="6">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G838" s="6">
+        <v>0</v>
+      </c>
+      <c r="H838" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I838" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J838" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="K838" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="L838" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="M838" s="6">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="N838" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="O838" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="P838" s="6">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="Q838" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R838" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="S838" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T838" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="U838" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="V838" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="W838" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="X838" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="Y838" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="Z838" s="6">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -67078,6 +71487,59 @@
     <hyperlink ref="C783" r:id="rId782"/>
     <hyperlink ref="C784" r:id="rId783"/>
     <hyperlink ref="C785" r:id="rId784"/>
+    <hyperlink ref="C786" r:id="rId785"/>
+    <hyperlink ref="C787" r:id="rId786"/>
+    <hyperlink ref="C788" r:id="rId787"/>
+    <hyperlink ref="C789" r:id="rId788"/>
+    <hyperlink ref="C790" r:id="rId789"/>
+    <hyperlink ref="C791" r:id="rId790"/>
+    <hyperlink ref="C792" r:id="rId791"/>
+    <hyperlink ref="C793" r:id="rId792"/>
+    <hyperlink ref="C794" r:id="rId793"/>
+    <hyperlink ref="C795" r:id="rId794"/>
+    <hyperlink ref="C796" r:id="rId795"/>
+    <hyperlink ref="C797" r:id="rId796"/>
+    <hyperlink ref="C798" r:id="rId797"/>
+    <hyperlink ref="C799" r:id="rId798"/>
+    <hyperlink ref="C800" r:id="rId799"/>
+    <hyperlink ref="C801" r:id="rId800"/>
+    <hyperlink ref="C802" r:id="rId801"/>
+    <hyperlink ref="C803" r:id="rId802"/>
+    <hyperlink ref="C804" r:id="rId803"/>
+    <hyperlink ref="C805" r:id="rId804"/>
+    <hyperlink ref="C806" r:id="rId805"/>
+    <hyperlink ref="C807" r:id="rId806"/>
+    <hyperlink ref="C808" r:id="rId807"/>
+    <hyperlink ref="C809" r:id="rId808"/>
+    <hyperlink ref="C810" r:id="rId809"/>
+    <hyperlink ref="C811" r:id="rId810"/>
+    <hyperlink ref="C812" r:id="rId811"/>
+    <hyperlink ref="C813" r:id="rId812"/>
+    <hyperlink ref="C814" r:id="rId813"/>
+    <hyperlink ref="C815" r:id="rId814"/>
+    <hyperlink ref="C816" r:id="rId815"/>
+    <hyperlink ref="C817" r:id="rId816"/>
+    <hyperlink ref="C818" r:id="rId817"/>
+    <hyperlink ref="C819" r:id="rId818"/>
+    <hyperlink ref="C820" r:id="rId819"/>
+    <hyperlink ref="C821" r:id="rId820"/>
+    <hyperlink ref="C822" r:id="rId821"/>
+    <hyperlink ref="C823" r:id="rId822"/>
+    <hyperlink ref="C824" r:id="rId823"/>
+    <hyperlink ref="C825" r:id="rId824"/>
+    <hyperlink ref="C826" r:id="rId825"/>
+    <hyperlink ref="C827" r:id="rId826"/>
+    <hyperlink ref="C828" r:id="rId827"/>
+    <hyperlink ref="C829" r:id="rId828"/>
+    <hyperlink ref="C830" r:id="rId829"/>
+    <hyperlink ref="C831" r:id="rId830"/>
+    <hyperlink ref="C832" r:id="rId831"/>
+    <hyperlink ref="C833" r:id="rId832"/>
+    <hyperlink ref="C834" r:id="rId833"/>
+    <hyperlink ref="C835" r:id="rId834"/>
+    <hyperlink ref="C836" r:id="rId835"/>
+    <hyperlink ref="C837" r:id="rId836"/>
+    <hyperlink ref="C838" r:id="rId837"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
